--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il17ra</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H2">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I2">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J2">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.783883673087221</v>
+        <v>1.014995666666667</v>
       </c>
       <c r="N2">
-        <v>0.783883673087221</v>
+        <v>3.044987</v>
       </c>
       <c r="O2">
-        <v>0.01770528467299769</v>
+        <v>0.020110553700394</v>
       </c>
       <c r="P2">
-        <v>0.01770528467299769</v>
+        <v>0.02091936818044578</v>
       </c>
       <c r="Q2">
-        <v>0.265749585909877</v>
+        <v>0.4556491480248889</v>
       </c>
       <c r="R2">
-        <v>0.265749585909877</v>
+        <v>4.100842332224</v>
       </c>
       <c r="S2">
-        <v>0.002216587677446979</v>
+        <v>0.001730661009719979</v>
       </c>
       <c r="T2">
-        <v>0.002216587677446979</v>
+        <v>0.001831784020969803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H3">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I3">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J3">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.19695246369189</v>
+        <v>10.30269233333333</v>
       </c>
       <c r="N3">
-        <v>9.19695246369189</v>
+        <v>30.908077</v>
       </c>
       <c r="O3">
-        <v>0.207728094211211</v>
+        <v>0.204131755664117</v>
       </c>
       <c r="P3">
-        <v>0.207728094211211</v>
+        <v>0.2123416101653531</v>
       </c>
       <c r="Q3">
-        <v>3.117919651564161</v>
+        <v>4.625057168433778</v>
       </c>
       <c r="R3">
-        <v>3.117919651564161</v>
+        <v>41.62551451590399</v>
       </c>
       <c r="S3">
-        <v>0.02600622031174362</v>
+        <v>0.01756703846332442</v>
       </c>
       <c r="T3">
-        <v>0.02600622031174362</v>
+        <v>0.01859348547875714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H4">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I4">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J4">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.2294194570354</v>
+        <v>13.94385766666667</v>
       </c>
       <c r="N4">
-        <v>11.2294194570354</v>
+        <v>41.831573</v>
       </c>
       <c r="O4">
-        <v>0.2536346591022679</v>
+        <v>0.2762757592030612</v>
       </c>
       <c r="P4">
-        <v>0.2536346591022679</v>
+        <v>0.2873871307674531</v>
       </c>
       <c r="Q4">
-        <v>3.806959722687612</v>
+        <v>6.259639400099555</v>
       </c>
       <c r="R4">
-        <v>3.806959722687612</v>
+        <v>56.33675460089599</v>
       </c>
       <c r="S4">
-        <v>0.03175342674930092</v>
+        <v>0.02377556041006251</v>
       </c>
       <c r="T4">
-        <v>0.03175342674930092</v>
+        <v>0.02516477311510093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H5">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I5">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J5">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4429973858886</v>
+        <v>19.355129</v>
       </c>
       <c r="N5">
-        <v>17.4429973858886</v>
+        <v>58.065387</v>
       </c>
       <c r="O5">
-        <v>0.3939783986713408</v>
+        <v>0.3834916482065965</v>
       </c>
       <c r="P5">
-        <v>0.3939783986713408</v>
+        <v>0.3989150722788209</v>
       </c>
       <c r="Q5">
-        <v>5.913465851471031</v>
+        <v>8.688852897002667</v>
       </c>
       <c r="R5">
-        <v>5.913465851471031</v>
+        <v>78.19967607302399</v>
       </c>
       <c r="S5">
-        <v>0.04932355959274903</v>
+        <v>0.033002275968732</v>
       </c>
       <c r="T5">
-        <v>0.04932355959274903</v>
+        <v>0.03493060826795901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H6">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I6">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J6">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.62074134260909</v>
+        <v>5.854122</v>
       </c>
       <c r="N6">
-        <v>5.62074134260909</v>
+        <v>11.708244</v>
       </c>
       <c r="O6">
-        <v>0.1269535633421825</v>
+        <v>0.1159902832258311</v>
       </c>
       <c r="P6">
-        <v>0.1269535633421825</v>
+        <v>0.08043681860792681</v>
       </c>
       <c r="Q6">
-        <v>1.905524678709171</v>
+        <v>2.628016837248</v>
       </c>
       <c r="R6">
-        <v>1.905524678709171</v>
+        <v>15.768101023488</v>
       </c>
       <c r="S6">
-        <v>0.01589376896839365</v>
+        <v>0.009981816695648234</v>
       </c>
       <c r="T6">
-        <v>0.01589376896839365</v>
+        <v>0.007043371374923954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.464813137411238</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H7">
-        <v>0.464813137411238</v>
+        <v>2.010684</v>
       </c>
       <c r="I7">
-        <v>0.1716482648086864</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J7">
-        <v>0.1716482648086864</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.783883673087221</v>
+        <v>1.014995666666667</v>
       </c>
       <c r="N7">
-        <v>0.783883673087221</v>
+        <v>3.044987</v>
       </c>
       <c r="O7">
-        <v>0.01770528467299769</v>
+        <v>0.020110553700394</v>
       </c>
       <c r="P7">
-        <v>0.01770528467299769</v>
+        <v>0.02091936818044578</v>
       </c>
       <c r="Q7">
-        <v>0.3643594294531164</v>
+        <v>0.6802785156786666</v>
       </c>
       <c r="R7">
-        <v>0.3643594294531164</v>
+        <v>6.122506641107999</v>
       </c>
       <c r="S7">
-        <v>0.003039081392063884</v>
+        <v>0.002583855380699494</v>
       </c>
       <c r="T7">
-        <v>0.003039081392063884</v>
+        <v>0.002734830779846361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.464813137411238</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H8">
-        <v>0.464813137411238</v>
+        <v>2.010684</v>
       </c>
       <c r="I8">
-        <v>0.1716482648086864</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J8">
-        <v>0.1716482648086864</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.19695246369189</v>
+        <v>10.30269233333333</v>
       </c>
       <c r="N8">
-        <v>9.19695246369189</v>
+        <v>30.908077</v>
       </c>
       <c r="O8">
-        <v>0.207728094211211</v>
+        <v>0.204131755664117</v>
       </c>
       <c r="P8">
-        <v>0.207728094211211</v>
+        <v>0.2123416101653531</v>
       </c>
       <c r="Q8">
-        <v>4.274864329270642</v>
+        <v>6.905152877185333</v>
       </c>
       <c r="R8">
-        <v>4.274864329270642</v>
+        <v>62.146375894668</v>
       </c>
       <c r="S8">
-        <v>0.0356561669233697</v>
+        <v>0.02622737012129257</v>
       </c>
       <c r="T8">
-        <v>0.0356561669233697</v>
+        <v>0.02775984275974294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.464813137411238</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H9">
-        <v>0.464813137411238</v>
+        <v>2.010684</v>
       </c>
       <c r="I9">
-        <v>0.1716482648086864</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J9">
-        <v>0.1716482648086864</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.2294194570354</v>
+        <v>13.94385766666667</v>
       </c>
       <c r="N9">
-        <v>11.2294194570354</v>
+        <v>41.831573</v>
       </c>
       <c r="O9">
-        <v>0.2536346591022679</v>
+        <v>0.2762757592030612</v>
       </c>
       <c r="P9">
-        <v>0.2536346591022679</v>
+        <v>0.2873871307674531</v>
       </c>
       <c r="Q9">
-        <v>5.219581689131425</v>
+        <v>9.345563836214666</v>
       </c>
       <c r="R9">
-        <v>5.219581689131425</v>
+        <v>84.11007452593199</v>
       </c>
       <c r="S9">
-        <v>0.04353594913024698</v>
+        <v>0.03549661623487185</v>
       </c>
       <c r="T9">
-        <v>0.04353594913024698</v>
+        <v>0.03757069353983777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.464813137411238</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H10">
-        <v>0.464813137411238</v>
+        <v>2.010684</v>
       </c>
       <c r="I10">
-        <v>0.1716482648086864</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J10">
-        <v>0.1716482648086864</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.4429973858886</v>
+        <v>19.355129</v>
       </c>
       <c r="N10">
-        <v>17.4429973858886</v>
+        <v>58.065387</v>
       </c>
       <c r="O10">
-        <v>0.3939783986713408</v>
+        <v>0.3834916482065965</v>
       </c>
       <c r="P10">
-        <v>0.3939783986713408</v>
+        <v>0.3989150722788209</v>
       </c>
       <c r="Q10">
-        <v>8.107734340790902</v>
+        <v>12.972349399412</v>
       </c>
       <c r="R10">
-        <v>8.107734340790902</v>
+        <v>116.751144594708</v>
       </c>
       <c r="S10">
-        <v>0.06762570850404054</v>
+        <v>0.0492719879041679</v>
       </c>
       <c r="T10">
-        <v>0.06762570850404054</v>
+        <v>0.05215096406365306</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.464813137411238</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H11">
-        <v>0.464813137411238</v>
+        <v>2.010684</v>
       </c>
       <c r="I11">
-        <v>0.1716482648086864</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J11">
-        <v>0.1716482648086864</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.62074134260909</v>
+        <v>5.854122</v>
       </c>
       <c r="N11">
-        <v>5.62074134260909</v>
+        <v>11.708244</v>
       </c>
       <c r="O11">
-        <v>0.1269535633421825</v>
+        <v>0.1159902832258311</v>
       </c>
       <c r="P11">
-        <v>0.1269535633421825</v>
+        <v>0.08043681860792681</v>
       </c>
       <c r="Q11">
-        <v>2.612594418035185</v>
+        <v>3.923596479816</v>
       </c>
       <c r="R11">
-        <v>2.612594418035185</v>
+        <v>23.541578878896</v>
       </c>
       <c r="S11">
-        <v>0.02179135885896528</v>
+        <v>0.01490272828321233</v>
       </c>
       <c r="T11">
-        <v>0.02179135885896528</v>
+        <v>0.01051566593524093</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.68214099616943</v>
+        <v>2.117577333333333</v>
       </c>
       <c r="H12">
-        <v>1.68214099616943</v>
+        <v>6.352732</v>
       </c>
       <c r="I12">
-        <v>0.6211885162371854</v>
+        <v>0.4059391019012432</v>
       </c>
       <c r="J12">
-        <v>0.6211885162371854</v>
+        <v>0.4130461779490745</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.783883673087221</v>
+        <v>1.014995666666667</v>
       </c>
       <c r="N12">
-        <v>0.783883673087221</v>
+        <v>3.044987</v>
       </c>
       <c r="O12">
-        <v>0.01770528467299769</v>
+        <v>0.020110553700394</v>
       </c>
       <c r="P12">
-        <v>0.01770528467299769</v>
+        <v>0.02091936818044578</v>
       </c>
       <c r="Q12">
-        <v>1.31860286272789</v>
+        <v>2.149331817164889</v>
       </c>
       <c r="R12">
-        <v>1.31860286272789</v>
+        <v>19.343986354484</v>
       </c>
       <c r="S12">
-        <v>0.01099831951557641</v>
+        <v>0.008163660107874664</v>
       </c>
       <c r="T12">
-        <v>0.01099831951557641</v>
+        <v>0.008640665072042615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.68214099616943</v>
+        <v>2.117577333333333</v>
       </c>
       <c r="H13">
-        <v>1.68214099616943</v>
+        <v>6.352732</v>
       </c>
       <c r="I13">
-        <v>0.6211885162371854</v>
+        <v>0.4059391019012432</v>
       </c>
       <c r="J13">
-        <v>0.6211885162371854</v>
+        <v>0.4130461779490745</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.19695246369189</v>
+        <v>10.30269233333333</v>
       </c>
       <c r="N13">
-        <v>9.19695246369189</v>
+        <v>30.908077</v>
       </c>
       <c r="O13">
-        <v>0.207728094211211</v>
+        <v>0.204131755664117</v>
       </c>
       <c r="P13">
-        <v>0.207728094211211</v>
+        <v>0.2123416101653531</v>
       </c>
       <c r="Q13">
-        <v>15.47057077899757</v>
+        <v>21.81674775737378</v>
       </c>
       <c r="R13">
-        <v>15.47057077899757</v>
+        <v>196.350729816364</v>
       </c>
       <c r="S13">
-        <v>0.1290383066238404</v>
+        <v>0.08286506156381568</v>
       </c>
       <c r="T13">
-        <v>0.1290383066238404</v>
+        <v>0.08770689049835144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.68214099616943</v>
+        <v>2.117577333333333</v>
       </c>
       <c r="H14">
-        <v>1.68214099616943</v>
+        <v>6.352732</v>
       </c>
       <c r="I14">
-        <v>0.6211885162371854</v>
+        <v>0.4059391019012432</v>
       </c>
       <c r="J14">
-        <v>0.6211885162371854</v>
+        <v>0.4130461779490745</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.2294194570354</v>
+        <v>13.94385766666667</v>
       </c>
       <c r="N14">
-        <v>11.2294194570354</v>
+        <v>41.831573</v>
       </c>
       <c r="O14">
-        <v>0.2536346591022679</v>
+        <v>0.2762757592030612</v>
       </c>
       <c r="P14">
-        <v>0.2536346591022679</v>
+        <v>0.2873871307674531</v>
       </c>
       <c r="Q14">
-        <v>18.88946683186191</v>
+        <v>29.52719693415955</v>
       </c>
       <c r="R14">
-        <v>18.88946683186191</v>
+        <v>265.744772407436</v>
       </c>
       <c r="S14">
-        <v>0.1575549375540621</v>
+        <v>0.1121511335679748</v>
       </c>
       <c r="T14">
-        <v>0.1575549375540621</v>
+        <v>0.1187041559552474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.68214099616943</v>
+        <v>2.117577333333333</v>
       </c>
       <c r="H15">
-        <v>1.68214099616943</v>
+        <v>6.352732</v>
       </c>
       <c r="I15">
-        <v>0.6211885162371854</v>
+        <v>0.4059391019012432</v>
       </c>
       <c r="J15">
-        <v>0.6211885162371854</v>
+        <v>0.4130461779490745</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.4429973858886</v>
+        <v>19.355129</v>
       </c>
       <c r="N15">
-        <v>17.4429973858886</v>
+        <v>58.065387</v>
       </c>
       <c r="O15">
-        <v>0.3939783986713408</v>
+        <v>0.3834916482065965</v>
       </c>
       <c r="P15">
-        <v>0.3939783986713408</v>
+        <v>0.3989150722788209</v>
       </c>
       <c r="Q15">
-        <v>29.34158099887941</v>
+        <v>40.98598245414266</v>
       </c>
       <c r="R15">
-        <v>29.34158099887941</v>
+        <v>368.873842087284</v>
       </c>
       <c r="S15">
-        <v>0.2447348569001525</v>
+        <v>0.1556742552596133</v>
       </c>
       <c r="T15">
-        <v>0.2447348569001525</v>
+        <v>0.1647703459310458</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.68214099616943</v>
+        <v>2.117577333333333</v>
       </c>
       <c r="H16">
-        <v>1.68214099616943</v>
+        <v>6.352732</v>
       </c>
       <c r="I16">
-        <v>0.6211885162371854</v>
+        <v>0.4059391019012432</v>
       </c>
       <c r="J16">
-        <v>0.6211885162371854</v>
+        <v>0.4130461779490745</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.62074134260909</v>
+        <v>5.854122</v>
       </c>
       <c r="N16">
-        <v>5.62074134260909</v>
+        <v>11.708244</v>
       </c>
       <c r="O16">
-        <v>0.1269535633421825</v>
+        <v>0.1159902832258311</v>
       </c>
       <c r="P16">
-        <v>0.1269535633421825</v>
+        <v>0.08043681860792681</v>
       </c>
       <c r="Q16">
-        <v>9.454879441267154</v>
+        <v>12.396556053768</v>
       </c>
       <c r="R16">
-        <v>9.454879441267154</v>
+        <v>74.379336322608</v>
       </c>
       <c r="S16">
-        <v>0.07886209564355388</v>
+        <v>0.04708499140196472</v>
       </c>
       <c r="T16">
-        <v>0.07886209564355388</v>
+        <v>0.03322412049238717</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.221968878390643</v>
+        <v>1.710495</v>
       </c>
       <c r="H17">
-        <v>0.221968878390643</v>
+        <v>5.131485</v>
       </c>
       <c r="I17">
-        <v>0.08196965565449404</v>
+        <v>0.3279015095111365</v>
       </c>
       <c r="J17">
-        <v>0.08196965565449404</v>
+        <v>0.3336423237204098</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.783883673087221</v>
+        <v>1.014995666666667</v>
       </c>
       <c r="N17">
-        <v>0.783883673087221</v>
+        <v>3.044987</v>
       </c>
       <c r="O17">
-        <v>0.01770528467299769</v>
+        <v>0.020110553700394</v>
       </c>
       <c r="P17">
-        <v>0.01770528467299769</v>
+        <v>0.02091936818044578</v>
       </c>
       <c r="Q17">
-        <v>0.1739977797039079</v>
+        <v>1.736145012855</v>
       </c>
       <c r="R17">
-        <v>0.1739977797039079</v>
+        <v>15.625305115695</v>
       </c>
       <c r="S17">
-        <v>0.001451296087910412</v>
+        <v>0.006594280915463964</v>
       </c>
       <c r="T17">
-        <v>0.001451296087910412</v>
+        <v>0.006979586610486732</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.221968878390643</v>
+        <v>1.710495</v>
       </c>
       <c r="H18">
-        <v>0.221968878390643</v>
+        <v>5.131485</v>
       </c>
       <c r="I18">
-        <v>0.08196965565449404</v>
+        <v>0.3279015095111365</v>
       </c>
       <c r="J18">
-        <v>0.08196965565449404</v>
+        <v>0.3336423237204098</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.19695246369189</v>
+        <v>10.30269233333333</v>
       </c>
       <c r="N18">
-        <v>9.19695246369189</v>
+        <v>30.908077</v>
       </c>
       <c r="O18">
-        <v>0.207728094211211</v>
+        <v>0.204131755664117</v>
       </c>
       <c r="P18">
-        <v>0.207728094211211</v>
+        <v>0.2123416101653531</v>
       </c>
       <c r="Q18">
-        <v>2.04143722297775</v>
+        <v>17.622703722705</v>
       </c>
       <c r="R18">
-        <v>2.04143722297775</v>
+        <v>158.604333504345</v>
       </c>
       <c r="S18">
-        <v>0.01702740035225726</v>
+        <v>0.06693511082142245</v>
       </c>
       <c r="T18">
-        <v>0.01702740035225726</v>
+        <v>0.0708461482381018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.221968878390643</v>
+        <v>1.710495</v>
       </c>
       <c r="H19">
-        <v>0.221968878390643</v>
+        <v>5.131485</v>
       </c>
       <c r="I19">
-        <v>0.08196965565449404</v>
+        <v>0.3279015095111365</v>
       </c>
       <c r="J19">
-        <v>0.08196965565449404</v>
+        <v>0.3336423237204098</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.2294194570354</v>
+        <v>13.94385766666667</v>
       </c>
       <c r="N19">
-        <v>11.2294194570354</v>
+        <v>41.831573</v>
       </c>
       <c r="O19">
-        <v>0.2536346591022679</v>
+        <v>0.2762757592030612</v>
       </c>
       <c r="P19">
-        <v>0.2536346591022679</v>
+        <v>0.2873871307674531</v>
       </c>
       <c r="Q19">
-        <v>2.492581641856211</v>
+        <v>23.850898819545</v>
       </c>
       <c r="R19">
-        <v>2.492581641856211</v>
+        <v>214.658089375905</v>
       </c>
       <c r="S19">
-        <v>0.02079034566865788</v>
+        <v>0.09059123848401904</v>
       </c>
       <c r="T19">
-        <v>0.02079034566865788</v>
+        <v>0.09588451011659435</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.221968878390643</v>
+        <v>1.710495</v>
       </c>
       <c r="H20">
-        <v>0.221968878390643</v>
+        <v>5.131485</v>
       </c>
       <c r="I20">
-        <v>0.08196965565449404</v>
+        <v>0.3279015095111365</v>
       </c>
       <c r="J20">
-        <v>0.08196965565449404</v>
+        <v>0.3336423237204098</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.4429973858886</v>
+        <v>19.355129</v>
       </c>
       <c r="N20">
-        <v>17.4429973858886</v>
+        <v>58.065387</v>
       </c>
       <c r="O20">
-        <v>0.3939783986713408</v>
+        <v>0.3834916482065965</v>
       </c>
       <c r="P20">
-        <v>0.3939783986713408</v>
+        <v>0.3989150722788209</v>
       </c>
       <c r="Q20">
-        <v>3.87180256551661</v>
+        <v>33.106851378855</v>
       </c>
       <c r="R20">
-        <v>3.87180256551661</v>
+        <v>297.961662409695</v>
       </c>
       <c r="S20">
-        <v>0.03229427367439878</v>
+        <v>0.1257474903318567</v>
       </c>
       <c r="T20">
-        <v>0.03229427367439878</v>
+        <v>0.1330949516822011</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.710495</v>
+      </c>
+      <c r="H21">
+        <v>5.131485</v>
+      </c>
+      <c r="I21">
+        <v>0.3279015095111365</v>
+      </c>
+      <c r="J21">
+        <v>0.3336423237204098</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.854122</v>
+      </c>
+      <c r="N21">
+        <v>11.708244</v>
+      </c>
+      <c r="O21">
+        <v>0.1159902832258311</v>
+      </c>
+      <c r="P21">
+        <v>0.08043681860792681</v>
+      </c>
+      <c r="Q21">
+        <v>10.01344641039</v>
+      </c>
+      <c r="R21">
+        <v>60.08067846234</v>
+      </c>
+      <c r="S21">
+        <v>0.03803338895837428</v>
+      </c>
+      <c r="T21">
+        <v>0.0268371270730258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2692725</v>
+      </c>
+      <c r="H22">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J22">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.014995666666667</v>
+      </c>
+      <c r="N22">
+        <v>3.044987</v>
+      </c>
+      <c r="O22">
+        <v>0.020110553700394</v>
+      </c>
+      <c r="P22">
+        <v>0.02091936818044578</v>
+      </c>
+      <c r="Q22">
+        <v>0.2733104206525</v>
+      </c>
+      <c r="R22">
+        <v>1.639862523915</v>
+      </c>
+      <c r="S22">
+        <v>0.001038096286635898</v>
+      </c>
+      <c r="T22">
+        <v>0.0007325016971002697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2692725</v>
+      </c>
+      <c r="H23">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J23">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.30269233333333</v>
+      </c>
+      <c r="N23">
+        <v>30.908077</v>
+      </c>
+      <c r="O23">
+        <v>0.204131755664117</v>
+      </c>
+      <c r="P23">
+        <v>0.2123416101653531</v>
+      </c>
+      <c r="Q23">
+        <v>2.7742317213275</v>
+      </c>
+      <c r="R23">
+        <v>16.645390327965</v>
+      </c>
+      <c r="S23">
+        <v>0.01053717469426188</v>
+      </c>
+      <c r="T23">
+        <v>0.007435243190399766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2692725</v>
+      </c>
+      <c r="H24">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J24">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>13.94385766666667</v>
+      </c>
+      <c r="N24">
+        <v>41.831573</v>
+      </c>
+      <c r="O24">
+        <v>0.2762757592030612</v>
+      </c>
+      <c r="P24">
+        <v>0.2873871307674531</v>
+      </c>
+      <c r="Q24">
+        <v>3.7546974135475</v>
+      </c>
+      <c r="R24">
+        <v>22.528184481285</v>
+      </c>
+      <c r="S24">
+        <v>0.01426121050613303</v>
+      </c>
+      <c r="T24">
+        <v>0.01006299804067269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.221968878390643</v>
-      </c>
-      <c r="H21">
-        <v>0.221968878390643</v>
-      </c>
-      <c r="I21">
-        <v>0.08196965565449404</v>
-      </c>
-      <c r="J21">
-        <v>0.08196965565449404</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.62074134260909</v>
-      </c>
-      <c r="N21">
-        <v>5.62074134260909</v>
-      </c>
-      <c r="O21">
-        <v>0.1269535633421825</v>
-      </c>
-      <c r="P21">
-        <v>0.1269535633421825</v>
-      </c>
-      <c r="Q21">
-        <v>1.247629651542857</v>
-      </c>
-      <c r="R21">
-        <v>1.247629651542857</v>
-      </c>
-      <c r="S21">
-        <v>0.0104063398712697</v>
-      </c>
-      <c r="T21">
-        <v>0.0104063398712697</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2692725</v>
+      </c>
+      <c r="H25">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J25">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.355129</v>
+      </c>
+      <c r="N25">
+        <v>58.065387</v>
+      </c>
+      <c r="O25">
+        <v>0.3834916482065965</v>
+      </c>
+      <c r="P25">
+        <v>0.3989150722788209</v>
+      </c>
+      <c r="Q25">
+        <v>5.211803973652501</v>
+      </c>
+      <c r="R25">
+        <v>31.270823841915</v>
+      </c>
+      <c r="S25">
+        <v>0.0197956387422266</v>
+      </c>
+      <c r="T25">
+        <v>0.013968202333962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2692725</v>
+      </c>
+      <c r="H26">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J26">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.854122</v>
+      </c>
+      <c r="N26">
+        <v>11.708244</v>
+      </c>
+      <c r="O26">
+        <v>0.1159902832258311</v>
+      </c>
+      <c r="P26">
+        <v>0.08043681860792681</v>
+      </c>
+      <c r="Q26">
+        <v>1.576354066245</v>
+      </c>
+      <c r="R26">
+        <v>6.305416264980001</v>
+      </c>
+      <c r="S26">
+        <v>0.005987357886631553</v>
+      </c>
+      <c r="T26">
+        <v>0.002816533732348956</v>
       </c>
     </row>
   </sheetData>
